--- a/Examples/Hydrurga_C7378_V1_0_20250723_232116.xlsx
+++ b/Examples/Hydrurga_C7378_V1_0_20250723_232116.xlsx
@@ -5,19 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub\DataCheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\GitHub\PHD_XLS_Validator\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0921CF-BB60-4730-910C-C4F458DDDBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DF0CAF-2AC4-4E89-A122-1B1F6FE59A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="15" windowWidth="23010" windowHeight="12330" activeTab="3" xr2:uid="{B30E8A96-C8BB-4099-9CE9-6C249E4F3EED}"/>
+    <workbookView xWindow="2220" yWindow="345" windowWidth="21600" windowHeight="15435" activeTab="2" xr2:uid="{B30E8A96-C8BB-4099-9CE9-6C249E4F3EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="Arch" sheetId="2" r:id="rId2"/>
     <sheet name="Combined" sheetId="3" r:id="rId3"/>
-    <sheet name="Combined (2)" sheetId="5" r:id="rId4"/>
-    <sheet name="VBAcode" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="VBAcode" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="vba_input_data" localSheetId="1">Arch!$A$2</definedName>
@@ -25,10 +24,8 @@
     <definedName name="vbaFileName" localSheetId="1">Arch!$L$1</definedName>
     <definedName name="vbaFileName" localSheetId="0">Base!$L$1</definedName>
     <definedName name="vbaFileName" localSheetId="2">Combined!$L$1</definedName>
-    <definedName name="vbaFileName" localSheetId="3">'Combined (2)'!$L$1</definedName>
     <definedName name="vbaRgeColors" localSheetId="1">Arch!$K$2:$K$21</definedName>
     <definedName name="vbaRgeColors" localSheetId="2">Combined!$E$2:$E$40</definedName>
-    <definedName name="vbaRgeColors" localSheetId="3">'Combined (2)'!$E$2:$E$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -93,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="216">
   <si>
     <t>X</t>
   </si>
@@ -1388,27 +1385,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2286,4326 +2263,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000017-8B77-4C94-A359-F5F0F12AA60A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392344304"/>
-        <c:axId val="392341424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392344304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392341424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392341424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392344304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Combined (2)'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0101"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF2501"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF4901"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF6D01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF9601"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFBA01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFDE01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FCFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="D8FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="B4FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="8AFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="67FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="43FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="1FFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF07"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF2B"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF4F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF79"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF9C"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFC0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFE4"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01F6FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01D2FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01A8FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0184FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0161FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="013DFF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0119FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0D01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="3101FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="5B01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="7F01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="A201FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C601FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="34"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="EA01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="35"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01F0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01C6"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01A2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF017F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-211C-4B8A-A3B0-26EC85DF84CE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$A$2:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.18717768800000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8394835359999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4437609349999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9027499680000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.738838533</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4089207339999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5794457299999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0635578639999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0091343190000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0017496939999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8000621799999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85025380900000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.0356693640000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.1174695319999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.0395794920000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.0539841169999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-5.3474307630000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-4.4100935210000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.0685697429999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.0263945190000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4613604549999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.108209803</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.60922746999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.65655361400000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.29862867599999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.69136958699999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.42624868900000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.25065236499999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41124728500000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.20472905</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.285270234</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.8044874070000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.0024196409999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.8104858619999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.53641669</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.33101379199999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.073439032</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.45159025899999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7.3187433999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$B$2:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>10.82894993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4892205660000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5544400310000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5991107859999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3860353989999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.41688905</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.7587567000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.997676037</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.6524676340000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.1947919899999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.8118200299999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.9280246449999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.0112000920000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.7114933509999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.2929993469999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25944779800000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8756223649999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4215291079999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.3898938169999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.7457173439999991</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-6.4461439470000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-5.6983565909999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.9862279699999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.840946175</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.7335114479999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.824588898</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.4092358410000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.779032918</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.0025914889999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.161757588</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0433318739999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8949788550000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.4753702090000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.4588927199999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.7733790000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.8807593159999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.814159343</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.5584117309999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.18693395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-211C-4B8A-A3B0-26EC85DF84CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392344304"/>
-        <c:axId val="392341424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392344304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392341424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392341424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392344304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Combined (2)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Z</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0101"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF2501"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF4901"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF6D01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF9601"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFBA01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFDE01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FCFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="D8FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="B4FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="8AFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="67FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="43FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="1FFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF07"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF2B"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF4F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF79"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF9C"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFC0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFE4"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01F6FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01D2FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01A8FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0184FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0161FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="013DFF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0119FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0D01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="3101FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="5B01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="7F01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="A201FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C601FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="34"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="EA01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="35"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01F0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01C6"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01A2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF017F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-2117-46CC-8DB9-49A29DD43A9D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$C$2:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>-3.791447878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.626884054</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.4073065539999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.009617655</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.7966077839999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.7831053670000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.5425806500000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.231658962</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.0420881120000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.3025065480000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.9152920249999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.4927720170000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.5698659939999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.4892756880000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.7852382809999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.1746169950000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.1709711519999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.2568835049999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.7210298879999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.912085254</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.567256258</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.206477891</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4560039890000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8519499589999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.98170844199999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.32109958500000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.467497888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.1888690649999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0708819030000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.520468709999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.1705122899999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.0682910789999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.6933724989999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.010276164</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.76357613199999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.3987769699999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.198797052</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.229366382</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.0662534960000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$B$2:$B$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>10.82894993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.4892205660000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5544400310000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5991107859999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3860353989999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.41688905</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.7587567000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.997676037</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.6524676340000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.1947919899999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.8118200299999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-7.9280246449999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-7.0112000920000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.7114933509999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-2.2929993469999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25944779800000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8756223649999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4215291079999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.3898938169999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.7457173439999991</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-6.4461439470000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-5.6983565909999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.9862279699999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.840946175</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.7335114479999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.824588898</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.4092358410000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.779032918</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.0025914889999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.161757588</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0433318739999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8949788550000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.4753702090000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.4588927199999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.7733790000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.8807593159999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.814159343</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.5584117309999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>10.18693395</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-2117-46CC-8DB9-49A29DD43A9D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392344304"/>
-        <c:axId val="392341424"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392344304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392341424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392341424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392344304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Combined (2)'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF0101"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF2501"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF4901"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF6D01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF9601"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFBA01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FFDE01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FCFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="D8FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="B4FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="8AFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="67FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="43FF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="1FFF01"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF07"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF2B"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF4F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF79"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FF9C"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFC0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01FFE4"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01F6FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01D2FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="23"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="01A8FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="24"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0184FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="25"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0161FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="013DFF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="27"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0119FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="0D01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="29"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="3101FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="30"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="5B01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="7F01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="A201FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="C601FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="34"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="EA01FF"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="35"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01F0"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01C6"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF01A2"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="10"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="FF017F"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-ADA4-42F4-97D7-135E729579E5}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$A$2:$A$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>0.18717768800000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8394835359999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4437609349999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9027499680000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.738838533</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4089207339999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5794457299999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.0635578639999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0091343190000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0017496939999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.8000621799999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.85025380900000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.0356693640000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.1174695319999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.0395794920000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-4.0539841169999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-5.3474307630000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-4.4100935210000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.0685697429999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-2.0263945190000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4613604549999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.108209803</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.60922746999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.65655361400000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.29862867599999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.69136958699999995</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.42624868900000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.25065236499999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41124728500000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.20472905</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.285270234</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.8044874070000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-2.0024196409999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.8104858619999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.53641669</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.33101379199999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.073439032</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.45159025899999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-7.3187433999999996E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Combined (2)'!$C$2:$C$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>-3.791447878</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.626884054</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-3.4073065539999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3.009617655</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.7966077839999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.7831053670000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.5425806500000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-3.231658962</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.0420881120000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.3025065480000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.9152920249999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-4.4927720170000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.5698659939999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-4.4892756880000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.7852382809999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.1746169950000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.1709711519999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.2568835049999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.7210298879999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.912085254</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.567256258</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.206477891</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4560039890000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8519499589999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.98170844199999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.32109958500000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.467497888</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.1888690649999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.0708819030000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10.520468709999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.1705122899999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.0682910789999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.6933724989999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.010276164</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.76357613199999996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.3987769699999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.198797052</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.229366382</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.0662534960000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-ADA4-42F4-97D7-135E729579E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16147,86 +11804,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16546,46 +12123,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -17102,7 +12639,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17618,7 +13155,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18134,7 +13671,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18650,7 +14187,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19166,7 +14703,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19682,7 +15219,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20198,1555 +15735,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22613,125 +16602,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="cht_Top">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD40E440-D83C-4294-9AF6-5520C8169B10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="cht_end">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F292ACBF-5793-4D1D-9520-7CFAE8052910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="cht_bottom">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6978EF6-978E-4329-AC62-CBC616BF5A51}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23897,7 +17767,7 @@
     <mergeCell ref="L1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24519,7 +18389,7 @@
     <mergeCell ref="L1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24531,8 +18401,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24555,7 +18425,7 @@
       <c r="D1" s="1"/>
       <c r="L1" s="72" t="str">
         <f ca="1">_xlfn.TEXTJOIN("_",TRUE,X1:AC1)&amp;"_"&amp;TEXT(NOW(),"yyyymmdd\_hhmmss")&amp;".xlsx"</f>
-        <v>Hydrurga_C7378_V1_0_20250724_001841.xlsx</v>
+        <v>Hydrurga_C7378_V1_0_20250724_121853.xlsx</v>
       </c>
       <c r="M1" s="72"/>
       <c r="N1" s="72"/>
@@ -25694,7 +19564,7 @@
     <mergeCell ref="L1:V1"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:T40">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>A2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25704,1186 +19574,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7A34283-6A92-4FA9-8D45-BF013E3688CF}">
-  <dimension ref="A1:AC40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="L1" s="72" t="str">
-        <f ca="1">_xlfn.TEXTJOIN("_",TRUE,X1:AC1)&amp;"_"&amp;TEXT(NOW(),"yyyymmdd\_hhmmss")&amp;".xlsx"</f>
-        <v>Hydrurga_C7378_V1_0_20250724_001841.xlsx</v>
-      </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" t="s">
-        <v>213</v>
-      </c>
-      <c r="X1" s="61" t="str">
-        <f>IF(X2=X3,X2,"")</f>
-        <v>Hydrurga</v>
-      </c>
-      <c r="Y1" s="62" t="str">
-        <f t="shared" ref="Y1:AC1" si="0">IF(Y2=Y3,Y2,"")</f>
-        <v>C7378</v>
-      </c>
-      <c r="Z1" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA1" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB1" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>V1</v>
-      </c>
-      <c r="AC1" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.18717768800000001</v>
-      </c>
-      <c r="B2">
-        <v>10.82894993</v>
-      </c>
-      <c r="C2">
-        <v>-3.791447878</v>
-      </c>
-      <c r="E2" s="3">
-        <v>66047</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" ref="Q2:Q40" si="1">MATCH(R2,$A$2:$A$40,0)</f>
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0.18717768800000001</v>
-      </c>
-      <c r="S2">
-        <v>10.82894993</v>
-      </c>
-      <c r="T2">
-        <v>-3.791447878</v>
-      </c>
-      <c r="W2" t="s">
-        <v>211</v>
-      </c>
-      <c r="X2" s="64" t="str" cm="1">
-        <f t="array" ref="X2:AB2">_xlfn.TEXTSPLIT(Arch!vbaFileName,"_")</f>
-        <v>Hydrurga</v>
-      </c>
-      <c r="Y2" s="65" t="str">
-        <v>C7378</v>
-      </c>
-      <c r="Z2" s="65" t="str">
-        <v>arch</v>
-      </c>
-      <c r="AA2" s="65" t="str">
-        <v>ordered</v>
-      </c>
-      <c r="AB2" s="65" t="str">
-        <v>V1</v>
-      </c>
-      <c r="AC2" s="66"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.8394835359999999</v>
-      </c>
-      <c r="B3">
-        <v>9.4892205660000002</v>
-      </c>
-      <c r="C3">
-        <v>-3.626884054</v>
-      </c>
-      <c r="E3" s="29">
-        <v>73727</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>1.8394835359999999</v>
-      </c>
-      <c r="S3">
-        <v>9.4892205660000002</v>
-      </c>
-      <c r="T3">
-        <v>-3.626884054</v>
-      </c>
-      <c r="W3" t="s">
-        <v>212</v>
-      </c>
-      <c r="X3" s="67" t="str" cm="1">
-        <f t="array" ref="X3:AB3">_xlfn.TEXTSPLIT(Base!vbaFileName,"_")</f>
-        <v>Hydrurga</v>
-      </c>
-      <c r="Y3" s="68" t="str">
-        <v>C7378</v>
-      </c>
-      <c r="Z3" s="68" t="str">
-        <v>base</v>
-      </c>
-      <c r="AA3" s="68" t="str">
-        <v>combined</v>
-      </c>
-      <c r="AB3" s="68" t="str">
-        <v>V1</v>
-      </c>
-      <c r="AC3" s="69"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4437609349999998</v>
-      </c>
-      <c r="B4">
-        <v>7.5544400310000004</v>
-      </c>
-      <c r="C4">
-        <v>-3.4073065539999998</v>
-      </c>
-      <c r="E4" s="4">
-        <v>82943</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>2.4437609349999998</v>
-      </c>
-      <c r="S4">
-        <v>7.5544400310000004</v>
-      </c>
-      <c r="T4">
-        <v>-3.4073065539999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2.9027499680000002</v>
-      </c>
-      <c r="B5">
-        <v>5.5991107859999998</v>
-      </c>
-      <c r="C5">
-        <v>-3.009617655</v>
-      </c>
-      <c r="E5" s="30">
-        <v>90623</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>2.9027499680000002</v>
-      </c>
-      <c r="S5">
-        <v>5.5991107859999998</v>
-      </c>
-      <c r="T5">
-        <v>-3.009617655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3.738838533</v>
-      </c>
-      <c r="B6">
-        <v>3.3860353989999998</v>
-      </c>
-      <c r="C6">
-        <v>-2.7966077839999999</v>
-      </c>
-      <c r="E6" s="5">
-        <v>98303</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>3.738838533</v>
-      </c>
-      <c r="S6">
-        <v>3.3860353989999998</v>
-      </c>
-      <c r="T6">
-        <v>-2.7966077839999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4.4089207339999996</v>
-      </c>
-      <c r="B7">
-        <v>1.41688905</v>
-      </c>
-      <c r="C7">
-        <v>-2.7831053670000001</v>
-      </c>
-      <c r="E7" s="31">
-        <v>105727</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>4.4089207339999996</v>
-      </c>
-      <c r="S7">
-        <v>1.41688905</v>
-      </c>
-      <c r="T7">
-        <v>-2.7831053670000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4.5794457299999998</v>
-      </c>
-      <c r="B8">
-        <v>-3.7587567000000002E-2</v>
-      </c>
-      <c r="C8">
-        <v>-2.5425806500000001</v>
-      </c>
-      <c r="E8" s="32">
-        <v>114943</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>4.5794457299999998</v>
-      </c>
-      <c r="S8">
-        <v>-3.7587567000000002E-2</v>
-      </c>
-      <c r="T8">
-        <v>-2.5425806500000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5.0635578639999999</v>
-      </c>
-      <c r="B9">
-        <v>-1.997676037</v>
-      </c>
-      <c r="C9">
-        <v>-3.231658962</v>
-      </c>
-      <c r="E9" s="33">
-        <v>122623</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="R9">
-        <v>5.0635578639999999</v>
-      </c>
-      <c r="S9">
-        <v>-1.997676037</v>
-      </c>
-      <c r="T9">
-        <v>-3.231658962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5.0091343190000002</v>
-      </c>
-      <c r="B10">
-        <v>-3.6524676340000002</v>
-      </c>
-      <c r="C10">
-        <v>-4.0420881120000001</v>
-      </c>
-      <c r="E10" s="34">
-        <v>130303</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>5.0091343190000002</v>
-      </c>
-      <c r="S10">
-        <v>-3.6524676340000002</v>
-      </c>
-      <c r="T10">
-        <v>-4.0420881120000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4.0017496939999999</v>
-      </c>
-      <c r="B11">
-        <v>-5.1947919899999997</v>
-      </c>
-      <c r="C11">
-        <v>-4.3025065480000002</v>
-      </c>
-      <c r="E11" s="35">
-        <v>131044</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>4.0017496939999999</v>
-      </c>
-      <c r="S11">
-        <v>-5.1947919899999997</v>
-      </c>
-      <c r="T11">
-        <v>-4.3025065480000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2.8000621799999998</v>
-      </c>
-      <c r="B12">
-        <v>-6.8118200299999998</v>
-      </c>
-      <c r="C12">
-        <v>-3.9152920249999998</v>
-      </c>
-      <c r="E12" s="36">
-        <v>131008</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>2.8000621799999998</v>
-      </c>
-      <c r="S12">
-        <v>-6.8118200299999998</v>
-      </c>
-      <c r="T12">
-        <v>-3.9152920249999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.85025380900000003</v>
-      </c>
-      <c r="B13">
-        <v>-7.9280246449999998</v>
-      </c>
-      <c r="C13">
-        <v>-4.4927720170000001</v>
-      </c>
-      <c r="E13" s="37">
-        <v>130978</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="R13">
-        <v>0.85025380900000003</v>
-      </c>
-      <c r="S13">
-        <v>-7.9280246449999998</v>
-      </c>
-      <c r="T13">
-        <v>-4.4927720170000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-1.0356693640000001</v>
-      </c>
-      <c r="B14">
-        <v>-7.0112000920000002</v>
-      </c>
-      <c r="C14">
-        <v>-4.5698659939999997</v>
-      </c>
-      <c r="E14" s="38">
-        <v>130948</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="R14">
-        <v>-1.0356693640000001</v>
-      </c>
-      <c r="S14">
-        <v>-7.0112000920000002</v>
-      </c>
-      <c r="T14">
-        <v>-4.5698659939999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-2.1174695319999999</v>
-      </c>
-      <c r="B15">
-        <v>-4.7114933509999997</v>
-      </c>
-      <c r="C15">
-        <v>-4.4892756880000002</v>
-      </c>
-      <c r="E15" s="19">
-        <v>130919</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="R15">
-        <v>-2.1174695319999999</v>
-      </c>
-      <c r="S15">
-        <v>-4.7114933509999997</v>
-      </c>
-      <c r="T15">
-        <v>-4.4892756880000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-3.0395794920000001</v>
-      </c>
-      <c r="B16">
-        <v>-2.2929993469999999</v>
-      </c>
-      <c r="C16">
-        <v>-3.7852382809999998</v>
-      </c>
-      <c r="E16" s="39">
-        <v>130883</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="R16">
-        <v>-3.0395794920000001</v>
-      </c>
-      <c r="S16">
-        <v>-2.2929993469999999</v>
-      </c>
-      <c r="T16">
-        <v>-3.7852382809999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-4.0539841169999997</v>
-      </c>
-      <c r="B17">
-        <v>0.25944779800000001</v>
-      </c>
-      <c r="C17">
-        <v>-3.1746169950000001</v>
-      </c>
-      <c r="E17" s="40">
-        <v>130853</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="R17">
-        <v>-4.0539841169999997</v>
-      </c>
-      <c r="S17">
-        <v>0.25944779800000001</v>
-      </c>
-      <c r="T17">
-        <v>-3.1746169950000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-5.3474307630000002</v>
-      </c>
-      <c r="B18">
-        <v>2.8756223649999999</v>
-      </c>
-      <c r="C18">
-        <v>-3.1709711519999999</v>
-      </c>
-      <c r="E18" s="41">
-        <v>130823</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="R18">
-        <v>-5.3474307630000002</v>
-      </c>
-      <c r="S18">
-        <v>2.8756223649999999</v>
-      </c>
-      <c r="T18">
-        <v>-3.1709711519999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>-4.4100935210000003</v>
-      </c>
-      <c r="B19">
-        <v>5.4215291079999997</v>
-      </c>
-      <c r="C19">
-        <v>-3.2568835049999998</v>
-      </c>
-      <c r="E19" s="42">
-        <v>1703681</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="R19">
-        <v>-4.4100935210000003</v>
-      </c>
-      <c r="S19">
-        <v>5.4215291079999997</v>
-      </c>
-      <c r="T19">
-        <v>-3.2568835049999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>-3.0685697429999998</v>
-      </c>
-      <c r="B20">
-        <v>7.3898938169999999</v>
-      </c>
-      <c r="C20">
-        <v>-3.7210298879999999</v>
-      </c>
-      <c r="E20" s="43">
-        <v>4062977</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="R20">
-        <v>-3.0685697429999998</v>
-      </c>
-      <c r="S20">
-        <v>7.3898938169999999</v>
-      </c>
-      <c r="T20">
-        <v>-3.7210298879999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-2.0263945190000001</v>
-      </c>
-      <c r="B21">
-        <v>9.7457173439999991</v>
-      </c>
-      <c r="C21">
-        <v>-3.912085254</v>
-      </c>
-      <c r="E21" s="9">
-        <v>6029057</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R21">
-        <v>-2.0263945190000001</v>
-      </c>
-      <c r="S21">
-        <v>9.7457173439999991</v>
-      </c>
-      <c r="T21">
-        <v>-3.912085254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1.4613604549999999</v>
-      </c>
-      <c r="B22">
-        <v>-6.4461439470000004</v>
-      </c>
-      <c r="C22">
-        <v>-1.567256258</v>
-      </c>
-      <c r="E22" s="44">
-        <v>7995137</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="R22">
-        <v>1.4613604549999999</v>
-      </c>
-      <c r="S22">
-        <v>-6.4461439470000004</v>
-      </c>
-      <c r="T22">
-        <v>-1.567256258</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.108209803</v>
-      </c>
-      <c r="B23">
-        <v>-5.6983565909999996</v>
-      </c>
-      <c r="C23">
-        <v>1.206477891</v>
-      </c>
-      <c r="E23" s="45">
-        <v>10288897</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="R23">
-        <v>1.108209803</v>
-      </c>
-      <c r="S23">
-        <v>-5.6983565909999996</v>
-      </c>
-      <c r="T23">
-        <v>1.206477891</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.60922746999999999</v>
-      </c>
-      <c r="B24">
-        <v>-3.9862279699999998</v>
-      </c>
-      <c r="C24">
-        <v>3.4560039890000001</v>
-      </c>
-      <c r="E24" s="46">
-        <v>12254977</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="R24">
-        <v>0.60922746999999999</v>
-      </c>
-      <c r="S24">
-        <v>-3.9862279699999998</v>
-      </c>
-      <c r="T24">
-        <v>3.4560039890000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.65655361400000001</v>
-      </c>
-      <c r="B25">
-        <v>-2.840946175</v>
-      </c>
-      <c r="C25">
-        <v>1.8519499589999999</v>
-      </c>
-      <c r="E25" s="47">
-        <v>14221057</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="R25">
-        <v>0.65655361400000001</v>
-      </c>
-      <c r="S25">
-        <v>-2.840946175</v>
-      </c>
-      <c r="T25">
-        <v>1.8519499589999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.29862867599999998</v>
-      </c>
-      <c r="B26">
-        <v>-2.7335114479999998</v>
-      </c>
-      <c r="C26">
-        <v>-0.98170844199999996</v>
-      </c>
-      <c r="E26" s="48">
-        <v>16187137</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R26">
-        <v>0.29862867599999998</v>
-      </c>
-      <c r="S26">
-        <v>-2.7335114479999998</v>
-      </c>
-      <c r="T26">
-        <v>-0.98170844199999996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>-0.69136958699999995</v>
-      </c>
-      <c r="B27">
-        <v>-1.824588898</v>
-      </c>
-      <c r="C27">
-        <v>-0.32109958500000002</v>
-      </c>
-      <c r="E27" s="49">
-        <v>16770049</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="R27">
-        <v>-0.69136958699999995</v>
-      </c>
-      <c r="S27">
-        <v>-1.824588898</v>
-      </c>
-      <c r="T27">
-        <v>-0.32109958500000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>-0.42624868900000001</v>
-      </c>
-      <c r="B28">
-        <v>-1.4092358410000001</v>
-      </c>
-      <c r="C28">
-        <v>2.467497888</v>
-      </c>
-      <c r="E28" s="25">
-        <v>16762369</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="R28">
-        <v>-0.42624868900000001</v>
-      </c>
-      <c r="S28">
-        <v>-1.4092358410000001</v>
-      </c>
-      <c r="T28">
-        <v>2.467497888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.25065236499999999</v>
-      </c>
-      <c r="B29">
-        <v>-1.779032918</v>
-      </c>
-      <c r="C29">
-        <v>5.1888690649999996</v>
-      </c>
-      <c r="E29" s="50">
-        <v>16754689</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="R29">
-        <v>0.25065236499999999</v>
-      </c>
-      <c r="S29">
-        <v>-1.779032918</v>
-      </c>
-      <c r="T29">
-        <v>5.1888690649999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.41124728500000002</v>
-      </c>
-      <c r="B30">
-        <v>-2.0025914889999998</v>
-      </c>
-      <c r="C30">
-        <v>8.0708819030000001</v>
-      </c>
-      <c r="E30" s="51">
-        <v>16747009</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="R30">
-        <v>0.41124728500000002</v>
-      </c>
-      <c r="S30">
-        <v>-2.0025914889999998</v>
-      </c>
-      <c r="T30">
-        <v>8.0708819030000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>-0.20472905</v>
-      </c>
-      <c r="B31">
-        <v>-1.161757588</v>
-      </c>
-      <c r="C31">
-        <v>10.520468709999999</v>
-      </c>
-      <c r="E31" s="7">
-        <v>16738049</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="R31">
-        <v>-0.20472905</v>
-      </c>
-      <c r="S31">
-        <v>-1.161757588</v>
-      </c>
-      <c r="T31">
-        <v>10.520468709999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>-1.285270234</v>
-      </c>
-      <c r="B32">
-        <v>1.0433318739999999</v>
-      </c>
-      <c r="C32">
-        <v>9.1705122899999996</v>
-      </c>
-      <c r="E32" s="52">
-        <v>16730369</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="R32">
-        <v>-1.285270234</v>
-      </c>
-      <c r="S32">
-        <v>1.0433318739999999</v>
-      </c>
-      <c r="T32">
-        <v>9.1705122899999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>-1.8044874070000001</v>
-      </c>
-      <c r="B33">
-        <v>2.8949788550000002</v>
-      </c>
-      <c r="C33">
-        <v>7.0682910789999998</v>
-      </c>
-      <c r="E33" s="8">
-        <v>16722689</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="R33">
-        <v>-1.8044874070000001</v>
-      </c>
-      <c r="S33">
-        <v>2.8949788550000002</v>
-      </c>
-      <c r="T33">
-        <v>7.0682910789999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>-2.0024196409999999</v>
-      </c>
-      <c r="B34">
-        <v>4.4753702090000003</v>
-      </c>
-      <c r="C34">
-        <v>4.6933724989999996</v>
-      </c>
-      <c r="E34" s="53">
-        <v>16715009</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="R34">
-        <v>-2.0024196409999999</v>
-      </c>
-      <c r="S34">
-        <v>4.4753702090000003</v>
-      </c>
-      <c r="T34">
-        <v>4.6933724989999996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>-1.8104858619999999</v>
-      </c>
-      <c r="B35">
-        <v>5.4588927199999997</v>
-      </c>
-      <c r="C35">
-        <v>2.010276164</v>
-      </c>
-      <c r="E35" s="54">
-        <v>16711961</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="R35">
-        <v>-1.8104858619999999</v>
-      </c>
-      <c r="S35">
-        <v>5.4588927199999997</v>
-      </c>
-      <c r="T35">
-        <v>2.010276164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>-1.53641669</v>
-      </c>
-      <c r="B36">
-        <v>5.7733790000000003</v>
-      </c>
-      <c r="C36">
-        <v>-0.76357613199999996</v>
-      </c>
-      <c r="E36" s="55">
-        <v>16711991</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="R36">
-        <v>-1.53641669</v>
-      </c>
-      <c r="S36">
-        <v>5.7733790000000003</v>
-      </c>
-      <c r="T36">
-        <v>-0.76357613199999996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>-0.33101379199999997</v>
-      </c>
-      <c r="B37">
-        <v>6.8807593159999998</v>
-      </c>
-      <c r="C37">
-        <v>-1.3987769699999999</v>
-      </c>
-      <c r="E37" s="56">
-        <v>16712021</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="R37">
-        <v>-0.33101379199999997</v>
-      </c>
-      <c r="S37">
-        <v>6.8807593159999998</v>
-      </c>
-      <c r="T37">
-        <v>-1.3987769699999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>-1.073439032</v>
-      </c>
-      <c r="B38">
-        <v>6.814159343</v>
-      </c>
-      <c r="C38">
-        <v>1.198797052</v>
-      </c>
-      <c r="E38" s="57">
-        <v>16712051</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="R38">
-        <v>-1.073439032</v>
-      </c>
-      <c r="S38">
-        <v>6.814159343</v>
-      </c>
-      <c r="T38">
-        <v>1.198797052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>-0.45159025899999999</v>
-      </c>
-      <c r="B39">
-        <v>8.5584117309999996</v>
-      </c>
-      <c r="C39">
-        <v>1.229366382</v>
-      </c>
-      <c r="E39" s="58">
-        <v>16712086</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="R39">
-        <v>-0.45159025899999999</v>
-      </c>
-      <c r="S39">
-        <v>8.5584117309999996</v>
-      </c>
-      <c r="T39">
-        <v>1.229366382</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>-7.3187433999999996E-2</v>
-      </c>
-      <c r="B40">
-        <v>10.18693395</v>
-      </c>
-      <c r="C40">
-        <v>-1.0662534960000001</v>
-      </c>
-      <c r="E40" s="11">
-        <v>16712116</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="R40">
-        <v>-7.3187433999999996E-2</v>
-      </c>
-      <c r="S40">
-        <v>10.18693395</v>
-      </c>
-      <c r="T40">
-        <v>-1.0662534960000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L1:V1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R2:T40">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>A2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>XEN2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F51042-32D4-438A-AC4F-8C67CBBD6481}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K128"/>
